--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68399AEB-9D21-4713-866E-DB2D1A87929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B046D7-7AAC-40F6-8080-93FA9FC99640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1027,7 +1027,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1173,6 +1173,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1203,49 +1210,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,8 +1266,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1478,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1496,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1524,13 +1534,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="13.8">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="13.2">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="13.2">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="13.2">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="13.2">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1591,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="13.2">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1595,35 +1605,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="13.2">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="13.2">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="13.2">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.2">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="13.2">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="13.2">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="13.2">
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="13.2">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1695,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="13.2">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="13.2">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1701,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="13.2">
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="13.2">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="13.2">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="13.2">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1736,15 +1752,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="13.2">
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="13.2">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +1774,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" ht="13.2">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1766,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" ht="13.2">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" ht="13.2">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B046D7-7AAC-40F6-8080-93FA9FC99640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EDF83-E677-44A4-8CAD-E0AE0D67AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1547,6 +1547,9 @@
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
       <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1557,6 +1560,9 @@
       </c>
       <c r="C7" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>322</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EDF83-E677-44A4-8CAD-E0AE0D67AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4C555-66CA-426B-A6E6-5AF78E7B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1595,6 +1595,9 @@
       <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="13.2">
@@ -1633,6 +1636,9 @@
       <c r="C12" s="27" t="s">
         <v>19</v>
       </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="13.2">
       <c r="B13" s="8" t="s">
@@ -1652,6 +1658,9 @@
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
@@ -1663,6 +1672,9 @@
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="13.2">
       <c r="B16" s="8" t="s">
@@ -1670,6 +1682,9 @@
       </c>
       <c r="C16" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>322</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4C555-66CA-426B-A6E6-5AF78E7B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A056988-25B9-4A1E-8C27-67048FF22C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1697,6 +1697,9 @@
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1723,6 +1726,9 @@
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
@@ -1733,6 +1739,9 @@
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>322</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A056988-25B9-4A1E-8C27-67048FF22C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44C421-4EE0-4AE0-8E3D-1177CF3D8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1885,6 +1885,9 @@
       <c r="C37" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
       <c r="H37" s="10" t="s">
         <v>13</v>
       </c>
@@ -1904,6 +1907,9 @@
       <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
       <c r="H39" s="10" t="s">
         <v>13</v>
       </c>
@@ -1914,6 +1920,9 @@
       </c>
       <c r="C40" s="9" t="s">
         <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44C421-4EE0-4AE0-8E3D-1177CF3D8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0EAB7-C799-4D9F-958C-2DA81D5843A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1899,6 +1899,9 @@
       <c r="C38" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="13.2">
       <c r="B39" s="8" t="s">
@@ -1931,6 +1934,9 @@
       </c>
       <c r="C41" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>322</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>13</v>
@@ -1945,6 +1951,9 @@
       </c>
       <c r="C42" s="9" t="s">
         <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>322</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>13</v>
@@ -2139,6 +2148,9 @@
       <c r="C63" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="D63" t="s">
+        <v>322</v>
+      </c>
       <c r="H63" s="10" t="s">
         <v>13</v>
       </c>
@@ -2436,6 +2448,9 @@
       <c r="C98" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="D98" t="s">
+        <v>322</v>
+      </c>
       <c r="E98" s="10" t="s">
         <v>13</v>
       </c>
@@ -2474,6 +2489,9 @@
       <c r="C102" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
       <c r="H102" s="11" t="s">
         <v>13</v>
       </c>
@@ -2526,6 +2544,9 @@
       </c>
       <c r="C107" s="9" t="s">
         <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>13</v>
@@ -2680,6 +2701,9 @@
       </c>
       <c r="C125" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="D125" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0EAB7-C799-4D9F-958C-2DA81D5843A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9689D0-B7E8-412A-8327-E561EA11F49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1754,6 +1754,9 @@
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
       <c r="I21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1764,6 +1767,9 @@
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="13.2">
@@ -2181,6 +2187,9 @@
       <c r="C67" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="68" spans="2:9" ht="13.2">
       <c r="B68" s="8" t="s">
@@ -2205,6 +2214,9 @@
       <c r="C70" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="D70" t="s">
+        <v>322</v>
+      </c>
       <c r="H70" s="5" t="s">
         <v>13</v>
       </c>
@@ -2216,6 +2228,9 @@
       <c r="C71" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="D71" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="72" spans="2:9" ht="13.2">
       <c r="B72" s="8" t="s">
@@ -2224,6 +2239,9 @@
       <c r="C72" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="D72" t="s">
+        <v>322</v>
+      </c>
       <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
@@ -2235,6 +2253,9 @@
       <c r="C73" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="D73" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="74" spans="2:9" ht="13.2">
       <c r="B74" s="8" t="s">
@@ -2242,6 +2263,9 @@
       </c>
       <c r="C74" s="9" t="s">
         <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9689D0-B7E8-412A-8327-E561EA11F49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE8767-48D0-4A94-BF35-C089EBFF4E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1972,6 +1972,9 @@
       <c r="C43" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="H43" s="10" t="s">
         <v>13</v>
@@ -1996,15 +1999,18 @@
         <v>52</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="13.2">
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="27" t="s">
         <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>322</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>13</v>
@@ -2046,6 +2052,9 @@
       </c>
       <c r="C50" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="13.2">
@@ -2143,6 +2152,9 @@
       <c r="C62" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="D62" t="s">
+        <v>322</v>
+      </c>
       <c r="H62" s="11" t="s">
         <v>13</v>
       </c>
@@ -2294,6 +2306,9 @@
       <c r="C77" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="79" spans="2:9" ht="13.2">
       <c r="B79" s="6"/>
@@ -2550,6 +2565,9 @@
       <c r="C105" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="D105" t="s">
+        <v>322</v>
+      </c>
       <c r="H105" s="10" t="s">
         <v>13</v>
       </c>
@@ -3985,6 +4003,9 @@
       </c>
       <c r="C258" s="9" t="s">
         <v>254</v>
+      </c>
+      <c r="D258" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="2:9" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE8767-48D0-4A94-BF35-C089EBFF4E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A923A-E4BA-4203-8108-30FE1241D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2135,6 +2135,9 @@
       <c r="C60" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="D60" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="13.2">
       <c r="B61" s="8" t="s">
@@ -2142,6 +2145,9 @@
       </c>
       <c r="C61" s="9" t="s">
         <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>322</v>
       </c>
       <c r="H61" s="11"/>
     </row>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A923A-E4BA-4203-8108-30FE1241D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8C9FF-71EF-497E-9F48-7DBA0B4F1B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2485,6 +2485,9 @@
       <c r="C97" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="D97" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="98" spans="2:9" ht="13.2">
       <c r="B98" s="8" t="s">
@@ -2507,6 +2510,9 @@
       <c r="C99" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="D99" t="s">
+        <v>322</v>
+      </c>
       <c r="I99" s="10" t="s">
         <v>13</v>
       </c>
@@ -2518,6 +2524,9 @@
       <c r="C100" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="D100" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="101" spans="2:9" ht="13.2">
       <c r="B101" s="8" t="s">
@@ -2526,6 +2535,9 @@
       <c r="C101" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="D101" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="102" spans="2:9" ht="13.2">
       <c r="B102" s="8" t="s">
@@ -2547,6 +2559,9 @@
       </c>
       <c r="C103" s="9" t="s">
         <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>322</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8C9FF-71EF-497E-9F48-7DBA0B4F1B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DFED9-48CF-489F-8C61-4E38957C3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2197,6 +2197,9 @@
       <c r="C66" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="D66" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="67" spans="2:9" ht="13.2">
       <c r="B67" s="8" t="s">
@@ -2215,6 +2218,9 @@
       </c>
       <c r="C68" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="13.2">
@@ -2577,6 +2583,9 @@
       <c r="C104" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
       <c r="H104" s="11"/>
     </row>
     <row r="105" spans="2:9" ht="13.2">
@@ -2597,7 +2606,7 @@
       <c r="B106" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="27" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2641,6 +2650,9 @@
       <c r="C110" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="D110" t="s">
+        <v>322</v>
+      </c>
       <c r="F110" s="11" t="s">
         <v>13</v>
       </c>
@@ -2652,6 +2664,9 @@
       <c r="C111" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="D111" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="112" spans="2:9" ht="13.2">
       <c r="B112" s="8" t="s">
@@ -2668,6 +2683,9 @@
       <c r="C113" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="D113" t="s">
+        <v>322</v>
+      </c>
       <c r="I113" s="11" t="s">
         <v>13</v>
       </c>
@@ -2679,6 +2697,9 @@
       <c r="C114" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="D114" t="s">
+        <v>322</v>
+      </c>
       <c r="H114" s="11" t="s">
         <v>13</v>
       </c>
@@ -2697,6 +2718,9 @@
       </c>
       <c r="C116" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="13.2">
@@ -2959,6 +2983,9 @@
       <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="D145" t="s">
+        <v>322</v>
+      </c>
       <c r="F145" s="11" t="s">
         <v>13</v>
       </c>
@@ -4336,6 +4363,9 @@
       </c>
       <c r="C290" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="D290" t="s">
+        <v>322</v>
       </c>
       <c r="H290" s="11" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DFED9-48CF-489F-8C61-4E38957C3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4FE92-C44A-4203-9A22-04C21C81FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4FE92-C44A-4203-9A22-04C21C81FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45713559-CFD2-41C2-BCBA-F999719669E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F19:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3499,6 +3499,9 @@
       <c r="C196" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="D196" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="197" spans="2:7" ht="13.2">
       <c r="B197" s="8" t="s">
@@ -3506,6 +3509,9 @@
       </c>
       <c r="C197" s="9" t="s">
         <v>195</v>
+      </c>
+      <c r="D197" t="s">
+        <v>322</v>
       </c>
       <c r="G197" s="11" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45713559-CFD2-41C2-BCBA-F999719669E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B177EB68-A68C-48A9-89BD-BFF223027E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1488,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1787,6 +1787,9 @@
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="13.2">
       <c r="B25" s="8" t="s">
@@ -3050,6 +3053,9 @@
       <c r="C151" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="D151" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="152" spans="2:9" ht="13.2">
       <c r="B152" s="8" t="s">
@@ -3057,6 +3063,9 @@
       </c>
       <c r="C152" s="3" t="s">
         <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>322</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>13</v>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B177EB68-A68C-48A9-89BD-BFF223027E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA3D3F-5462-4BD9-8075-805E06ECE115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="324">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Donne</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1267,6 +1270,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1488,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3017,14 +3026,14 @@
       <c r="F147" s="11"/>
     </row>
     <row r="148" spans="2:9" ht="13.2">
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>13</v>
+      <c r="D148" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>13</v>
@@ -3037,6 +3046,9 @@
       <c r="C149" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="D149" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="150" spans="2:9" ht="13.2">
       <c r="B150" s="8" t="s">
@@ -3045,6 +3057,9 @@
       <c r="C150" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="D150" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="151" spans="2:9" ht="13.2">
       <c r="B151" s="8" t="s">
@@ -3080,6 +3095,9 @@
       </c>
       <c r="C153" s="3" t="s">
         <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="13.2">
@@ -4078,6 +4096,9 @@
       <c r="C259" s="9" t="s">
         <v>255</v>
       </c>
+      <c r="D259" t="s">
+        <v>322</v>
+      </c>
       <c r="F259" s="11" t="s">
         <v>13</v>
       </c>
@@ -4086,7 +4107,7 @@
       <c r="B260" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" s="27" t="s">
         <v>256</v>
       </c>
       <c r="I260" s="11" t="s">
@@ -4534,6 +4555,9 @@
       </c>
       <c r="C309" s="3" t="s">
         <v>299</v>
+      </c>
+      <c r="D309" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="310" spans="2:9" ht="13.2">

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA ECLIPSE\40 day data Structure Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA3D3F-5462-4BD9-8075-805E06ECE115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F219693-1ED7-4CCB-9488-059FB971CC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="326">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1024,6 +1024,12 @@
   </si>
   <si>
     <t>Donne</t>
+  </si>
+  <si>
+    <t>(Revison require)</t>
+  </si>
+  <si>
+    <t>(again)</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1503,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1788,6 +1794,9 @@
       <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="13.2">
       <c r="B24" s="8" t="s">
@@ -1824,7 +1833,7 @@
     </row>
     <row r="27" spans="2:9" ht="13.2">
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>35</v>
@@ -2139,6 +2148,12 @@
       <c r="C59" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="D59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="60" spans="2:8" ht="13.2">
       <c r="B60" s="8" t="s">
@@ -2242,6 +2257,9 @@
       <c r="C69" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="D69" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="70" spans="2:9" ht="13.2">
       <c r="B70" s="8" t="s">
@@ -2987,6 +3005,9 @@
       <c r="C144" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="D144" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="145" spans="2:9" ht="13.2">
       <c r="B145" s="8" t="s">
@@ -3009,6 +3030,9 @@
       <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="D146" t="s">
+        <v>322</v>
+      </c>
       <c r="F146" s="11" t="s">
         <v>13</v>
       </c>
@@ -3023,6 +3047,9 @@
       <c r="C147" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="D147" t="s">
+        <v>322</v>
+      </c>
       <c r="F147" s="11"/>
     </row>
     <row r="148" spans="2:9" ht="13.2">
@@ -3108,7 +3135,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="2:9" ht="13.2">
@@ -3118,6 +3145,9 @@
       <c r="C155" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="D155" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="156" spans="2:9" ht="13.2">
       <c r="B156" s="8" t="s">
@@ -3126,6 +3156,9 @@
       <c r="C156" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="D156" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="157" spans="2:9" ht="13.2">
       <c r="B157" s="8" t="s">
@@ -3134,6 +3167,9 @@
       <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="D157" t="s">
+        <v>322</v>
+      </c>
       <c r="G157" s="11" t="s">
         <v>13</v>
       </c>
@@ -3148,6 +3184,9 @@
       <c r="C158" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="D158" t="s">
+        <v>322</v>
+      </c>
       <c r="I158" s="11" t="s">
         <v>13</v>
       </c>
@@ -3167,6 +3206,9 @@
       <c r="C160" s="9" t="s">
         <v>159</v>
       </c>
+      <c r="D160" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="161" spans="2:9" ht="13.2">
       <c r="B161" s="8" t="s">
@@ -3350,6 +3392,9 @@
       <c r="C178" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="D178" t="s">
+        <v>322</v>
+      </c>
       <c r="E178" s="11" t="s">
         <v>13</v>
       </c>
@@ -3401,6 +3446,9 @@
       </c>
       <c r="C183" s="3" t="s">
         <v>182</v>
+      </c>
+      <c r="D183" t="s">
+        <v>322</v>
       </c>
       <c r="G183" s="11" t="s">
         <v>13</v>
@@ -3504,6 +3552,9 @@
       <c r="C194" s="9" t="s">
         <v>192</v>
       </c>
+      <c r="D194" t="s">
+        <v>322</v>
+      </c>
       <c r="G194" s="11" t="s">
         <v>13</v>
       </c>
@@ -3515,6 +3566,9 @@
       <c r="C195" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="D195" t="s">
+        <v>322</v>
+      </c>
       <c r="E195" s="11" t="s">
         <v>13</v>
       </c>
@@ -3551,6 +3605,9 @@
       <c r="C198" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="D198" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="199" spans="2:7" ht="13.2">
       <c r="B199" s="8" t="s">
@@ -3559,6 +3616,12 @@
       <c r="C199" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D199" t="s">
+        <v>322</v>
+      </c>
+      <c r="E199" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="200" spans="2:7" ht="13.2">
       <c r="B200" s="8" t="s">
@@ -3566,6 +3629,12 @@
       </c>
       <c r="C200" s="9" t="s">
         <v>198</v>
+      </c>
+      <c r="D200" t="s">
+        <v>322</v>
+      </c>
+      <c r="E200" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="2:7" ht="13.2">
@@ -3957,6 +4026,9 @@
       <c r="C242" s="9" t="s">
         <v>239</v>
       </c>
+      <c r="D242" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="243" spans="2:7" ht="13.2">
       <c r="B243" s="8" t="s">
@@ -3965,6 +4037,9 @@
       <c r="C243" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D243" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="244" spans="2:7" ht="13.2">
       <c r="B244" s="8" t="s">
@@ -4031,6 +4106,9 @@
       </c>
       <c r="C251" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="D251" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="252" spans="2:7" ht="13.2">
@@ -4443,6 +4521,9 @@
       </c>
       <c r="C296" s="3" t="s">
         <v>288</v>
+      </c>
+      <c r="D296" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="2:9" ht="13.2">
